--- a/test/B 參數.xlsx
+++ b/test/B 參數.xlsx
@@ -5,18 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\testfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ABE912-FB6A-498F-8497-A1B4998A9B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956141B5-5D5B-43A9-A1BD-6D945D32DCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="原始資料參數" sheetId="5" r:id="rId1"/>
+    <sheet name="參數" sheetId="5" r:id="rId1"/>
     <sheet name="評鑑指標" sheetId="1" r:id="rId2"/>
-    <sheet name="科系數量統計" sheetId="4" r:id="rId3"/>
-    <sheet name="科系列表" sheetId="3" r:id="rId4"/>
+    <sheet name="科系列表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="377">
   <si>
     <t>編號</t>
   </si>
@@ -1151,20 +1150,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>學系數量</t>
-  </si>
-  <si>
-    <t>學院代碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZA0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指標數據筆數</t>
-  </si>
-  <si>
     <t>本次指標學年度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1173,7 +1158,53 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>學院數量</t>
+    <t>Z23</t>
+  </si>
+  <si>
+    <t>ZA0</t>
+  </si>
+  <si>
+    <t>文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>國</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>創</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1181,7 +1212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,16 +1269,8 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1308,12 +1331,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1342,7 +1359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1458,27 +1475,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -2134,10 +2157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9EF79C-B6DC-4966-8323-52D8F19EFDAE}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2147,24 +2170,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="44" t="s">
-        <v>365</v>
+      <c r="A1" s="41" t="s">
+        <v>362</v>
       </c>
       <c r="B1" s="39">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="B2" s="39">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2177,7 +2192,7 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -3535,12 +3550,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:B79">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E79">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3549,189 +3564,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8811FA-91F4-4835-A61F-1BCF00FEBC7D}">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>352</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="C2" s="46">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="41">
-        <v>100</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="41">
-        <v>700</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="41">
-        <v>200</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="41">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="41">
-        <v>600</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="41">
-        <v>300</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="41">
-        <v>500</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="41">
-        <v>400</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="C10" s="41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="41">
-        <v>800</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="C11" s="41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="41">
-        <v>900</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="C12" s="41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="C13" s="41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="C14" s="41">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6F4F1D-4402-498D-B742-AC62FD83CA7B}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15.75"/>
@@ -3758,422 +3596,422 @@
     </row>
     <row r="2" spans="1:4" ht="16.5">
       <c r="A2" s="30" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>351</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" s="25" t="s">
-        <v>177</v>
+      <c r="A3" s="30" t="s">
+        <v>363</v>
       </c>
       <c r="B3" s="32">
         <v>100</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5">
+      <c r="A4" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="36">
+        <v>700</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="31">
+        <v>200</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5">
+      <c r="A6" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="31">
+        <v>600</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5">
+      <c r="A7" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="31">
+        <v>300</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5">
+      <c r="A8" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="31">
+        <v>500</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5">
+      <c r="A9" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="31">
+        <v>400</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5">
+      <c r="A10" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="31">
+        <v>800</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5">
+      <c r="A11" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" s="31">
+        <v>900</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5">
+      <c r="A12" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5">
+      <c r="A13" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5">
+      <c r="A14" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="32">
+        <v>100</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D14" s="31" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="25" t="s">
+    <row r="15" spans="1:4" ht="16.5">
+      <c r="A15" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B15" s="36">
         <v>101</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C15" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D15" s="42" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
-      <c r="A5" s="25" t="s">
+    <row r="16" spans="1:4" ht="16.5">
+      <c r="A16" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B16" s="36">
         <v>103</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C16" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D16" s="42" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
-      <c r="A6" s="25" t="s">
+    <row r="17" spans="1:4" ht="16.5">
+      <c r="A17" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B17" s="36">
         <v>104</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C17" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D17" s="42" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5">
-      <c r="A7" s="25" t="s">
+    <row r="18" spans="1:4" ht="16.5">
+      <c r="A18" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B18" s="36">
         <v>155</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C18" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D18" s="42" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5">
-      <c r="A8" s="25" t="s">
+    <row r="19" spans="1:4" ht="16.5">
+      <c r="A19" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B19" s="36">
         <v>156</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C19" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D19" s="42" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5">
-      <c r="A9" s="25" t="s">
+    <row r="20" spans="1:4" ht="16.5">
+      <c r="A20" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B20" s="36">
         <v>158</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C20" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D20" s="42" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5">
-      <c r="A10" s="25" t="s">
+    <row r="21" spans="1:4" ht="16.5">
+      <c r="A21" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B21" s="36">
         <v>159</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C21" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D21" s="42" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5">
-      <c r="A11" s="25" t="s">
+    <row r="22" spans="1:4" ht="16.5">
+      <c r="A22" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B22" s="36">
         <v>161</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C22" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D22" s="42" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5">
-      <c r="A12" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="33">
-        <v>160</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5">
-      <c r="A13" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="33">
-        <v>912</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5">
-      <c r="A14" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="33">
-        <v>913</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5">
-      <c r="A15" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="33">
-        <v>700</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5">
-      <c r="A16" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="28">
-        <v>701</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5">
-      <c r="A17" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="28">
-        <v>702</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5">
-      <c r="A18" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="28">
-        <v>754</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5">
-      <c r="A19" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="28">
-        <v>755</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5">
-      <c r="A20" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" s="33">
-        <v>200</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5">
-      <c r="A21" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" s="28">
-        <v>202</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5">
-      <c r="A22" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="28">
-        <v>204</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5">
       <c r="A23" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" s="28">
-        <v>205</v>
+        <v>177</v>
+      </c>
+      <c r="B23" s="33">
+        <v>160</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5">
       <c r="A24" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" s="28">
-        <v>206</v>
+        <v>177</v>
+      </c>
+      <c r="B24" s="33">
+        <v>912</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5">
       <c r="A25" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" s="28">
-        <v>207</v>
+        <v>177</v>
+      </c>
+      <c r="B25" s="33">
+        <v>913</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5">
       <c r="A26" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="28">
-        <v>208</v>
+        <v>199</v>
+      </c>
+      <c r="B26" s="33">
+        <v>700</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>220</v>
+        <v>199</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5">
       <c r="A27" s="25" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B27" s="28">
-        <v>209</v>
+        <v>701</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5">
       <c r="A28" s="25" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B28" s="28">
-        <v>261</v>
+        <v>702</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5">
       <c r="A29" s="25" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B29" s="28">
-        <v>262</v>
+        <v>754</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5">
       <c r="A30" s="25" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B30" s="28">
-        <v>264</v>
+        <v>755</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5">
       <c r="A31" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="28">
-        <v>265</v>
+      <c r="B31" s="33">
+        <v>200</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>230</v>
+        <v>208</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5">
@@ -4181,13 +4019,13 @@
         <v>208</v>
       </c>
       <c r="B32" s="28">
-        <v>921</v>
+        <v>202</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5">
@@ -4195,13 +4033,13 @@
         <v>208</v>
       </c>
       <c r="B33" s="28">
-        <v>923</v>
+        <v>204</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5">
@@ -4209,13 +4047,13 @@
         <v>208</v>
       </c>
       <c r="B34" s="28">
-        <v>926</v>
+        <v>205</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5">
@@ -4223,13 +4061,13 @@
         <v>208</v>
       </c>
       <c r="B35" s="28">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5">
@@ -4237,237 +4075,237 @@
         <v>208</v>
       </c>
       <c r="B36" s="28">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5">
-      <c r="A37" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="B37" s="36">
-        <v>600</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>355</v>
+      <c r="A37" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="28">
+        <v>208</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5">
       <c r="A38" s="25" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B38" s="28">
-        <v>601</v>
+        <v>209</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5">
       <c r="A39" s="25" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B39" s="28">
-        <v>652</v>
+        <v>261</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5">
       <c r="A40" s="25" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B40" s="28">
-        <v>961</v>
+        <v>262</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5">
       <c r="A41" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="B41" s="33">
-        <v>300</v>
+        <v>208</v>
+      </c>
+      <c r="B41" s="28">
+        <v>264</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>248</v>
+        <v>227</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5">
       <c r="A42" s="25" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="B42" s="28">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5">
       <c r="A43" s="25" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="B43" s="28">
-        <v>302</v>
+        <v>921</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5">
       <c r="A44" s="25" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="B44" s="28">
-        <v>303</v>
+        <v>923</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5">
       <c r="A45" s="25" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="B45" s="28">
-        <v>304</v>
+        <v>926</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5">
       <c r="A46" s="25" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="B46" s="28">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5">
       <c r="A47" s="25" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="B47" s="28">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5">
-      <c r="A48" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="B48" s="28">
-        <v>307</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>262</v>
+      <c r="A48" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="B48" s="36">
+        <v>600</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5">
       <c r="A49" s="25" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B49" s="28">
-        <v>308</v>
+        <v>601</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5">
       <c r="A50" s="25" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B50" s="28">
-        <v>364</v>
+        <v>652</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5">
       <c r="A51" s="25" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B51" s="28">
-        <v>933</v>
+        <v>961</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5">
       <c r="A52" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="B52" s="28">
-        <v>932</v>
+      <c r="B52" s="33">
+        <v>300</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>270</v>
+        <v>248</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5">
@@ -4475,717 +4313,876 @@
         <v>248</v>
       </c>
       <c r="B53" s="28">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5">
       <c r="A54" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="B54" s="36">
-        <v>500</v>
+        <v>248</v>
+      </c>
+      <c r="B54" s="28">
+        <v>302</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>356</v>
+        <v>251</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5">
       <c r="A55" s="25" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B55" s="28">
-        <v>501</v>
+        <v>303</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5">
       <c r="A56" s="25" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B56" s="28">
-        <v>502</v>
+        <v>304</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5">
       <c r="A57" s="25" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B57" s="28">
-        <v>504</v>
+        <v>305</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5">
       <c r="A58" s="25" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B58" s="28">
-        <v>506</v>
+        <v>306</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5">
       <c r="A59" s="25" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B59" s="28">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5">
       <c r="A60" s="25" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B60" s="28">
-        <v>508</v>
+        <v>308</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5">
       <c r="A61" s="25" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B61" s="28">
-        <v>555</v>
+        <v>364</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5">
       <c r="A62" s="25" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B62" s="28">
-        <v>509</v>
+        <v>933</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5">
       <c r="A63" s="25" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B63" s="28">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5">
       <c r="A64" s="25" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B64" s="28">
-        <v>560</v>
+        <v>363</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5">
       <c r="A65" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="B65" s="28">
-        <v>510</v>
+      <c r="B65" s="36">
+        <v>500</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>295</v>
+        <v>273</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5">
       <c r="A66" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="B66" s="33">
-        <v>400</v>
+        <v>273</v>
+      </c>
+      <c r="B66" s="28">
+        <v>501</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>296</v>
+        <v>274</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5">
       <c r="A67" s="25" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B67" s="28">
-        <v>401</v>
+        <v>502</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5">
       <c r="A68" s="25" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B68" s="28">
-        <v>402</v>
+        <v>504</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5">
       <c r="A69" s="25" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B69" s="28">
-        <v>403</v>
+        <v>506</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5">
       <c r="A70" s="25" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B70" s="28">
-        <v>405</v>
+        <v>507</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5">
       <c r="A71" s="25" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B71" s="28">
-        <v>461</v>
+        <v>508</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5">
       <c r="A72" s="25" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B72" s="28">
-        <v>941</v>
+        <v>555</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5">
       <c r="A73" s="25" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B73" s="28">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5">
       <c r="A74" s="25" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B74" s="28">
-        <v>463</v>
+        <v>951</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5">
       <c r="A75" s="25" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B75" s="28">
-        <v>464</v>
+        <v>560</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5">
       <c r="A76" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B76" s="33">
-        <v>800</v>
+        <v>273</v>
+      </c>
+      <c r="B76" s="28">
+        <v>510</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>357</v>
+        <v>294</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5">
       <c r="A77" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B77" s="28">
-        <v>203</v>
+        <v>296</v>
+      </c>
+      <c r="B77" s="33">
+        <v>400</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>316</v>
+        <v>296</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5">
       <c r="A78" s="25" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B78" s="28">
-        <v>260</v>
+        <v>401</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5">
       <c r="A79" s="25" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B79" s="28">
-        <v>263</v>
+        <v>402</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5">
       <c r="A80" s="25" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B80" s="28">
-        <v>861</v>
+        <v>403</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5">
       <c r="A81" s="25" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B81" s="28">
-        <v>922</v>
+        <v>405</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>324</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5">
       <c r="A82" s="25" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B82" s="28">
-        <v>981</v>
+        <v>461</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5">
       <c r="A83" s="25" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B83" s="28">
-        <v>863</v>
+        <v>941</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5">
       <c r="A84" s="25" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B84" s="28">
-        <v>862</v>
+        <v>462</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5">
       <c r="A85" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="B85" s="33">
-        <v>900</v>
+        <v>296</v>
+      </c>
+      <c r="B85" s="28">
+        <v>463</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>331</v>
+        <v>310</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5">
       <c r="A86" s="25" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="B86" s="28">
-        <v>102</v>
+        <v>464</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5">
       <c r="A87" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="B87" s="28">
-        <v>157</v>
+        <v>314</v>
+      </c>
+      <c r="B87" s="33">
+        <v>800</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>335</v>
+        <v>314</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5">
       <c r="A88" s="25" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B88" s="28">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5">
       <c r="A89" s="25" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B89" s="28">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5">
       <c r="A90" s="25" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B90" s="28">
-        <v>911</v>
+        <v>263</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="16.5">
       <c r="A91" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>359</v>
+        <v>314</v>
+      </c>
+      <c r="B91" s="28">
+        <v>861</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="D91" s="26" t="s">
-        <v>360</v>
+        <v>321</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5">
       <c r="A92" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>170</v>
+        <v>314</v>
+      </c>
+      <c r="B92" s="28">
+        <v>922</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5">
       <c r="A93" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>171</v>
+        <v>314</v>
+      </c>
+      <c r="B93" s="28">
+        <v>981</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5">
       <c r="A94" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>361</v>
+        <v>314</v>
+      </c>
+      <c r="B94" s="28">
+        <v>863</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>346</v>
+        <v>327</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5">
       <c r="A95" s="25" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="B95" s="28">
-        <v>703</v>
+        <v>862</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5">
       <c r="A96" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B96" s="33">
+        <v>900</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16.5">
+      <c r="A97" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B97" s="28">
+        <v>102</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.5">
+      <c r="A98" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B98" s="28">
+        <v>157</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.5">
+      <c r="A99" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B99" s="28">
+        <v>171</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16.5">
+      <c r="A100" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B100" s="28">
+        <v>172</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16.5">
+      <c r="A101" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B101" s="28">
+        <v>911</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16.5">
+      <c r="A102" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16.5">
+      <c r="A103" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="16.5">
+      <c r="A104" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16.5">
+      <c r="A105" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B96" s="28">
+      <c r="B105" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16.5">
+      <c r="A106" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="B106" s="28">
+        <v>703</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16.5">
+      <c r="A107" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="B107" s="28">
         <v>971</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C107" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D107" s="27" t="s">
         <v>350</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:C14 A16:C19 A21:C40 A42:C65 A67:C75 A77:C84 A86:C90 A92:C93 A95:C96">
-    <cfRule type="expression" dxfId="19" priority="28">
+  <conditionalFormatting sqref="A27:C30 A32:C51 A53:C76 A78:C86 A88:C95 A97:C101 A103:C104 A106:C107 A1:C3 A4 A5:C25">
+    <cfRule type="expression" dxfId="20" priority="29">
       <formula>$D1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D14 D16:D19 D21:D36 D38:D40 D42:D53 D55:D65 D67:D75 D77:D84 D86:D90 D92:D93 D95:D96">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="27">
+  <conditionalFormatting sqref="D27:D30 D32:D47 D49:D51 D53:D64 D66:D76 D78:D86 D88:D95 D97:D101 D103:D104 D106:D107 D1:D25">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="28">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15">
-    <cfRule type="expression" dxfId="17" priority="26">
-      <formula>$D15&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="expression" dxfId="18" priority="27">
+      <formula>$D26&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>$D15&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="17" priority="25">
+      <formula>$D26&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20">
-    <cfRule type="expression" dxfId="15" priority="23">
-      <formula>$D20&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A31:C31">
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>$D31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="14" priority="21">
-      <formula>$D20&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="15" priority="22">
+      <formula>$D31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="13" priority="20">
-      <formula>$D37&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>$D48&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:C41">
-    <cfRule type="expression" dxfId="12" priority="19">
-      <formula>$D41&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A52:C52">
+    <cfRule type="expression" dxfId="13" priority="20">
+      <formula>$D52&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="expression" dxfId="11" priority="17">
-      <formula>$D41&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>$D52&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>$D54&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="11" priority="17">
+      <formula>$D65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:C66">
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>$D66&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A77:C77">
+    <cfRule type="expression" dxfId="10" priority="16">
+      <formula>$D77&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="8" priority="13">
-      <formula>$D66&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D77">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>$D77&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:C76">
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>$D76&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A87:C87">
+    <cfRule type="expression" dxfId="8" priority="13">
+      <formula>$D87&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
-    <cfRule type="expression" dxfId="6" priority="10">
-      <formula>$D76&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>$D87&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85:C85">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>$D85&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A96:C96">
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>$D96&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>$D85&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D96">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>$D96&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:C91">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$D91&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A102:C102">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>$D102&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D91&lt;&gt;""</formula>
+  <conditionalFormatting sqref="D102">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$D102&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94:C94">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$D94&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A105:C105">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D105&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
+  <conditionalFormatting sqref="D105">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$D105&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$D94&lt;&gt;""</formula>
+      <formula>$D4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/B 參數.xlsx
+++ b/test/B 參數.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956141B5-5D5B-43A9-A1BD-6D945D32DCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F561DFA-D253-430F-BE4E-77A3B055FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="參數" sheetId="5" r:id="rId1"/>
-    <sheet name="評鑑指標" sheetId="1" r:id="rId2"/>
-    <sheet name="科系列表" sheetId="3" r:id="rId3"/>
+    <sheet name="評鑑指標" sheetId="1" r:id="rId1"/>
+    <sheet name="科系列表" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="376">
   <si>
     <t>編號</t>
   </si>
@@ -1147,10 +1146,6 @@
   </si>
   <si>
     <t>7A0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次指標學年度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1212,7 +1207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1257,13 +1252,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -1359,7 +1347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1473,9 +1461,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2155,44 +2140,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9EF79C-B6DC-4966-8323-52D8F19EFDAE}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="41" t="s">
-        <v>362</v>
-      </c>
-      <c r="B1" s="39">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -3563,12 +3515,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6F4F1D-4402-498D-B742-AC62FD83CA7B}">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -3596,13 +3548,13 @@
     </row>
     <row r="2" spans="1:4" ht="16.5">
       <c r="A2" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>351</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>352</v>
@@ -3610,7 +3562,7 @@
     </row>
     <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="32">
         <v>100</v>
@@ -3619,12 +3571,12 @@
         <v>177</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B4" s="36">
         <v>700</v>
@@ -3633,12 +3585,12 @@
         <v>199</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B5" s="31">
         <v>200</v>
@@ -3647,12 +3599,12 @@
         <v>208</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B6" s="31">
         <v>600</v>
@@ -3661,12 +3613,12 @@
         <v>241</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B7" s="31">
         <v>300</v>
@@ -3675,12 +3627,12 @@
         <v>248</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5">
       <c r="A8" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B8" s="31">
         <v>500</v>
@@ -3689,12 +3641,12 @@
         <v>273</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5">
       <c r="A9" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B9" s="31">
         <v>400</v>
@@ -3703,12 +3655,12 @@
         <v>296</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5">
       <c r="A10" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B10" s="31">
         <v>800</v>
@@ -3717,12 +3669,12 @@
         <v>314</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5">
       <c r="A11" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B11" s="31">
         <v>900</v>
@@ -3731,35 +3683,35 @@
         <v>331</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5">
       <c r="A12" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>363</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>364</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>341</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5">
       <c r="A13" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>346</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5">
@@ -3786,7 +3738,7 @@
       <c r="C15" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="39" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3800,7 +3752,7 @@
       <c r="C16" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="39" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3814,7 +3766,7 @@
       <c r="C17" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="39" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3828,7 +3780,7 @@
       <c r="C18" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="39" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3842,7 +3794,7 @@
       <c r="C19" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="39" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3856,7 +3808,7 @@
       <c r="C20" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="39" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3870,7 +3822,7 @@
       <c r="C21" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="39" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3884,7 +3836,7 @@
       <c r="C22" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="39" t="s">
         <v>192</v>
       </c>
     </row>

--- a/test/B 參數.xlsx
+++ b/test/B 參數.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5265E853-BD8C-4383-B09E-8E11163F6F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EAABC0-5461-43BA-8C7E-320AE20E3DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="評鑑指標" sheetId="1" r:id="rId1"/>
@@ -1662,8 +1662,8 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1831,8 +1831,8 @@
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15.75"/>

--- a/test/B 參數.xlsx
+++ b/test/B 參數.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EAABC0-5461-43BA-8C7E-320AE20E3DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A336262F-463F-415F-A915-2594A2010C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1663,7 +1663,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1832,7 +1832,7 @@
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15.75"/>

--- a/test/B 參數.xlsx
+++ b/test/B 參數.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A336262F-463F-415F-A915-2594A2010C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214A4041-7665-4682-BE2A-D1F2B685E608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="322">
   <si>
     <t>編號</t>
   </si>
@@ -708,10 +708,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7A0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>政治大學</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -722,47 +718,316 @@
     <t>ZA0</t>
   </si>
   <si>
-    <t>文</t>
+    <t>在原始資料中全稱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>理</t>
+    <t>000 政治大學（校加總 / 校均值）</t>
+  </si>
+  <si>
+    <t>100 文學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>700 理學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>200 社會科學學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>600 法學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>300 商學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>500 外國語文學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>400 傳播學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>800 國際事務學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>900 教育學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>Z23 創新國際學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>ZA0 資訊學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>101 中國文學系</t>
+  </si>
+  <si>
+    <t>103 歷史學系</t>
+  </si>
+  <si>
+    <t>104 哲學系</t>
+  </si>
+  <si>
+    <t>155 圖書資訊與檔案學研究所</t>
+  </si>
+  <si>
+    <t>156 宗教研究所</t>
+  </si>
+  <si>
+    <t>158 台灣史研究所</t>
+  </si>
+  <si>
+    <t>159 台灣文學研究所</t>
+  </si>
+  <si>
+    <t>161 華語文教學碩士學位學程</t>
+  </si>
+  <si>
+    <t>160 華語文教學博士學位學程</t>
+  </si>
+  <si>
+    <t>912 國文教學碩士在職專班</t>
+  </si>
+  <si>
+    <t>913 圖書資訊學數位碩士在職專班</t>
+  </si>
+  <si>
+    <t>701 應用數學系</t>
+  </si>
+  <si>
+    <t>702 心理學系</t>
+  </si>
+  <si>
+    <t>754 神經科學研究所</t>
+  </si>
+  <si>
+    <t>755 應用物理研究所</t>
+  </si>
+  <si>
+    <t>202 政治學系</t>
+  </si>
+  <si>
+    <t>204 社會學系</t>
+  </si>
+  <si>
+    <t>205 財政學系</t>
+  </si>
+  <si>
+    <t>206 公共行政學系</t>
+  </si>
+  <si>
+    <t>207 地政學系</t>
+  </si>
+  <si>
+    <t>208 經濟學系</t>
+  </si>
+  <si>
+    <t>209 民族學系</t>
+  </si>
+  <si>
+    <t>261 國家發展研究所</t>
+  </si>
+  <si>
+    <t>262 勞工研究所</t>
+  </si>
+  <si>
+    <t>264 社會工作研究所</t>
+  </si>
+  <si>
+    <t>265 亞太研究英語博士學位學程</t>
+  </si>
+  <si>
+    <t>921 行政管理碩士學程</t>
+  </si>
+  <si>
+    <t>923 地政學系碩士在職專班</t>
+  </si>
+  <si>
+    <t>926 亞太研究英語碩士學位學程</t>
+  </si>
+  <si>
+    <t>266 應用經濟與社會發展英語碩士學位學程</t>
+  </si>
+  <si>
+    <t>267 土地政策與環境規劃碩士原住民專班</t>
+  </si>
+  <si>
+    <t>601 法律學系</t>
+  </si>
+  <si>
+    <t>652 法律科際整合研究所</t>
+  </si>
+  <si>
+    <t>961 法學院碩士在職專班</t>
+  </si>
+  <si>
+    <t>301 國際經營與貿易學系</t>
+  </si>
+  <si>
+    <t>302 金融學系</t>
+  </si>
+  <si>
+    <t>303 會計學系</t>
+  </si>
+  <si>
+    <t>304 統計學系</t>
+  </si>
+  <si>
+    <t>305 企業管理學系</t>
+  </si>
+  <si>
+    <t>306 資訊管理學系</t>
+  </si>
+  <si>
+    <t>307 財務管理學系</t>
+  </si>
+  <si>
+    <t>308 風險管理與保險學系</t>
+  </si>
+  <si>
+    <t>364 科技管理與智慧財產研究所</t>
+  </si>
+  <si>
+    <t>933 國際經營管理英語碩士學位學程</t>
+  </si>
+  <si>
+    <t>932 經營管理碩士學程</t>
+  </si>
+  <si>
+    <t>363 企業管理研究所(MBA學位學程)</t>
+  </si>
+  <si>
+    <t>501 英國語文學系</t>
+  </si>
+  <si>
+    <t>502 阿拉伯語文學系</t>
+  </si>
+  <si>
+    <t>504 斯拉夫語文學系</t>
+  </si>
+  <si>
+    <t>506 日本語文學系</t>
+  </si>
+  <si>
+    <t>507 韓國語文學系</t>
+  </si>
+  <si>
+    <t>508 土耳其語文學系</t>
+  </si>
+  <si>
+    <t>555 語言學研究所</t>
+  </si>
+  <si>
+    <t>509 歐洲語文學系</t>
+  </si>
+  <si>
+    <t>951 英國語文學系英語教學碩士在職專班</t>
+  </si>
+  <si>
+    <t>560 中東與中亞研究碩士學位學程</t>
+  </si>
+  <si>
+    <t>510 東南亞語言與文化學士學位學程</t>
+  </si>
+  <si>
+    <t>401 新聞學系</t>
+  </si>
+  <si>
+    <t>402 廣告學系</t>
+  </si>
+  <si>
+    <t>403 廣播電視學系</t>
+  </si>
+  <si>
+    <t>405 傳播學院大一大二不分系</t>
+  </si>
+  <si>
+    <t>461 國際傳播英語碩士學位學程</t>
+  </si>
+  <si>
+    <t>941 傳播學院碩士在職專班</t>
+  </si>
+  <si>
+    <t>462 數位內容碩士學位學程</t>
+  </si>
+  <si>
+    <t>463 傳播學院博士班</t>
+  </si>
+  <si>
+    <t>464 傳播學院傳播碩士學位學程</t>
+  </si>
+  <si>
+    <t>203 外交學系</t>
+  </si>
+  <si>
+    <t>260 東亞研究所</t>
+  </si>
+  <si>
+    <t>263 俄羅斯研究所</t>
+  </si>
+  <si>
+    <t>861 日本研究碩士學位學程</t>
+  </si>
+  <si>
+    <t>922 外交學系戰略與國際事務碩士在職專班</t>
+  </si>
+  <si>
+    <t>981 國家安全與大陸研究碩士在職專班</t>
+  </si>
+  <si>
+    <t>863 日本研究博士學位學程</t>
+  </si>
+  <si>
+    <t>862 國際研究英語碩士學位學程</t>
+  </si>
+  <si>
+    <t>102 教育學系</t>
+  </si>
+  <si>
+    <t>157 幼兒教育研究所</t>
+  </si>
+  <si>
+    <t>171 教育行政與政策研究所</t>
+  </si>
+  <si>
+    <t>172 輔導與諮商碩士學位學程</t>
+  </si>
+  <si>
+    <t>911 學校行政碩士在職專班</t>
+  </si>
+  <si>
+    <t>ZU1 創新國際學院學士班</t>
+  </si>
+  <si>
+    <t>ZM1 全球傳播與創新科技碩士學位學程</t>
+  </si>
+  <si>
+    <t>703 資訊科學系</t>
+  </si>
+  <si>
+    <t>971 資訊科學系碩士在職專班</t>
+  </si>
+  <si>
+    <t>ZA0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>社</t>
+    <t>理學院</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>法</t>
+    <t>商學院</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>商</t>
+    <t>傳播學院</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>外</t>
+    <t>創國院</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>傳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>國</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>創</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>資</t>
+    <t>資訊學院</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -770,7 +1035,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,8 +1085,15 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,6 +1136,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -892,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -982,11 +1260,240 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="34">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1813,12 +2320,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:B8">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E8">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1829,10 +2336,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6F4F1D-4402-498D-B742-AC62FD83CA7B}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15.75"/>
@@ -1841,9 +2348,10 @@
     <col min="2" max="2" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5">
+    <row r="1" spans="1:5" ht="16.5">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -1856,176 +2364,215 @@
       <c r="D1" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5">
-      <c r="A2" s="21" t="s">
+      <c r="E1" s="32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5">
+      <c r="A2" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5">
+      <c r="A3" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="39">
+        <v>100</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="40">
+        <v>700</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="37">
+        <v>200</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="37">
+        <v>600</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5">
+      <c r="A7" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="37">
+        <v>300</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="37">
+        <v>500</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="37">
+        <v>400</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="37">
+        <v>800</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="37">
+        <v>900</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="23">
-        <v>100</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" s="27">
-        <v>700</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5">
-      <c r="A5" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="22">
-        <v>200</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5">
-      <c r="A6" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="22">
-        <v>600</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5">
-      <c r="A7" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="22">
-        <v>300</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5">
-      <c r="A8" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="22">
-        <v>500</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5">
-      <c r="A9" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="22">
-        <v>400</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5">
-      <c r="A10" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="22">
-        <v>800</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5">
-      <c r="A11" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="22">
-        <v>900</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5">
-      <c r="A12" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5">
+      <c r="A13" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5">
-      <c r="A13" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5">
+      <c r="D13" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="26" t="s">
         <v>33</v>
       </c>
@@ -2038,8 +2585,11 @@
       <c r="D14" s="22" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5">
+      <c r="E14" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="26" t="s">
         <v>33</v>
       </c>
@@ -2052,8 +2602,11 @@
       <c r="D15" s="30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5">
+      <c r="E15" s="33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="26" t="s">
         <v>33</v>
       </c>
@@ -2066,8 +2619,11 @@
       <c r="D16" s="30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5">
+      <c r="E16" s="33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="26" t="s">
         <v>33</v>
       </c>
@@ -2080,8 +2636,11 @@
       <c r="D17" s="30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5">
+      <c r="E17" s="33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="26" t="s">
         <v>33</v>
       </c>
@@ -2094,8 +2653,11 @@
       <c r="D18" s="30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5">
+      <c r="E18" s="33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="26" t="s">
         <v>33</v>
       </c>
@@ -2108,8 +2670,11 @@
       <c r="D19" s="30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5">
+      <c r="E19" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="26" t="s">
         <v>33</v>
       </c>
@@ -2122,8 +2687,11 @@
       <c r="D20" s="30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5">
+      <c r="E20" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="26" t="s">
         <v>33</v>
       </c>
@@ -2136,8 +2704,11 @@
       <c r="D21" s="30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5">
+      <c r="E21" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="26" t="s">
         <v>33</v>
       </c>
@@ -2150,8 +2721,11 @@
       <c r="D22" s="30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5">
+      <c r="E22" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="16" t="s">
         <v>33</v>
       </c>
@@ -2164,8 +2738,11 @@
       <c r="D23" s="18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5">
+      <c r="E23" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
@@ -2178,8 +2755,11 @@
       <c r="D24" s="18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5">
+      <c r="E24" s="34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="16" t="s">
         <v>33</v>
       </c>
@@ -2192,8 +2772,11 @@
       <c r="D25" s="18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5">
+      <c r="E25" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="16" t="s">
         <v>55</v>
       </c>
@@ -2206,8 +2789,11 @@
       <c r="D26" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5">
+      <c r="E26" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="16" t="s">
         <v>55</v>
       </c>
@@ -2220,8 +2806,11 @@
       <c r="D27" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5">
+      <c r="E27" s="34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="16" t="s">
         <v>55</v>
       </c>
@@ -2234,8 +2823,11 @@
       <c r="D28" s="18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5">
+      <c r="E28" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16" t="s">
         <v>55</v>
       </c>
@@ -2248,8 +2840,11 @@
       <c r="D29" s="18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5">
+      <c r="E29" s="34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5">
       <c r="A30" s="16" t="s">
         <v>55</v>
       </c>
@@ -2262,8 +2857,11 @@
       <c r="D30" s="18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5">
+      <c r="E30" s="34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="16" t="s">
         <v>64</v>
       </c>
@@ -2276,8 +2874,11 @@
       <c r="D31" s="17" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5">
+      <c r="E31" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5">
       <c r="A32" s="16" t="s">
         <v>64</v>
       </c>
@@ -2290,8 +2891,11 @@
       <c r="D32" s="18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5">
+      <c r="E32" s="34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="16" t="s">
         <v>64</v>
       </c>
@@ -2304,8 +2908,11 @@
       <c r="D33" s="18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5">
+      <c r="E33" s="34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="16" t="s">
         <v>64</v>
       </c>
@@ -2318,8 +2925,11 @@
       <c r="D34" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5">
+      <c r="E34" s="34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="16" t="s">
         <v>64</v>
       </c>
@@ -2332,8 +2942,11 @@
       <c r="D35" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5">
+      <c r="E35" s="34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5">
       <c r="A36" s="16" t="s">
         <v>64</v>
       </c>
@@ -2346,8 +2959,11 @@
       <c r="D36" s="18" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5">
+      <c r="E36" s="34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5">
       <c r="A37" s="16" t="s">
         <v>64</v>
       </c>
@@ -2360,8 +2976,11 @@
       <c r="D37" s="18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5">
+      <c r="E37" s="34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="16" t="s">
         <v>64</v>
       </c>
@@ -2374,8 +2993,11 @@
       <c r="D38" s="18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5">
+      <c r="E38" s="34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5">
       <c r="A39" s="16" t="s">
         <v>64</v>
       </c>
@@ -2388,8 +3010,11 @@
       <c r="D39" s="18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5">
+      <c r="E39" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5">
       <c r="A40" s="16" t="s">
         <v>64</v>
       </c>
@@ -2402,8 +3027,11 @@
       <c r="D40" s="18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5">
+      <c r="E40" s="34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5">
       <c r="A41" s="16" t="s">
         <v>64</v>
       </c>
@@ -2416,8 +3044,11 @@
       <c r="D41" s="18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5">
+      <c r="E41" s="34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="16" t="s">
         <v>64</v>
       </c>
@@ -2430,8 +3061,11 @@
       <c r="D42" s="18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5">
+      <c r="E42" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="16" t="s">
         <v>64</v>
       </c>
@@ -2444,8 +3078,11 @@
       <c r="D43" s="18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.5">
+      <c r="E43" s="34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5">
       <c r="A44" s="16" t="s">
         <v>64</v>
       </c>
@@ -2458,8 +3095,11 @@
       <c r="D44" s="18" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5">
+      <c r="E44" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5">
       <c r="A45" s="16" t="s">
         <v>64</v>
       </c>
@@ -2472,8 +3112,11 @@
       <c r="D45" s="18" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.5">
+      <c r="E45" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5">
       <c r="A46" s="16" t="s">
         <v>64</v>
       </c>
@@ -2486,8 +3129,11 @@
       <c r="D46" s="18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5">
+      <c r="E46" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5">
       <c r="A47" s="16" t="s">
         <v>64</v>
       </c>
@@ -2500,8 +3146,11 @@
       <c r="D47" s="18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5">
+      <c r="E47" s="34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5">
       <c r="A48" s="26" t="s">
         <v>211</v>
       </c>
@@ -2514,8 +3163,11 @@
       <c r="D48" s="28" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5">
+      <c r="E48" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5">
       <c r="A49" s="16" t="s">
         <v>97</v>
       </c>
@@ -2528,8 +3180,11 @@
       <c r="D49" s="18" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.5">
+      <c r="E49" s="34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="16" t="s">
         <v>97</v>
       </c>
@@ -2542,8 +3197,11 @@
       <c r="D50" s="18" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="16.5">
+      <c r="E50" s="34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5">
       <c r="A51" s="16" t="s">
         <v>97</v>
       </c>
@@ -2556,8 +3214,11 @@
       <c r="D51" s="18" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.5">
+      <c r="E51" s="34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5">
       <c r="A52" s="16" t="s">
         <v>104</v>
       </c>
@@ -2570,8 +3231,11 @@
       <c r="D52" s="17" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="16.5">
+      <c r="E52" s="31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5">
       <c r="A53" s="16" t="s">
         <v>104</v>
       </c>
@@ -2584,8 +3248,11 @@
       <c r="D53" s="18" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.5">
+      <c r="E53" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.5">
       <c r="A54" s="16" t="s">
         <v>104</v>
       </c>
@@ -2598,8 +3265,11 @@
       <c r="D54" s="18" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.5">
+      <c r="E54" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.5">
       <c r="A55" s="16" t="s">
         <v>104</v>
       </c>
@@ -2612,8 +3282,11 @@
       <c r="D55" s="18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.5">
+      <c r="E55" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.5">
       <c r="A56" s="16" t="s">
         <v>104</v>
       </c>
@@ -2626,8 +3299,11 @@
       <c r="D56" s="18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="16.5">
+      <c r="E56" s="34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5">
       <c r="A57" s="16" t="s">
         <v>104</v>
       </c>
@@ -2640,8 +3316,11 @@
       <c r="D57" s="18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="16.5">
+      <c r="E57" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5">
       <c r="A58" s="16" t="s">
         <v>104</v>
       </c>
@@ -2654,8 +3333,11 @@
       <c r="D58" s="18" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="16.5">
+      <c r="E58" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5">
       <c r="A59" s="16" t="s">
         <v>104</v>
       </c>
@@ -2668,8 +3350,11 @@
       <c r="D59" s="18" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="16.5">
+      <c r="E59" s="34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5">
       <c r="A60" s="16" t="s">
         <v>104</v>
       </c>
@@ -2682,8 +3367,11 @@
       <c r="D60" s="18" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.5">
+      <c r="E60" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.5">
       <c r="A61" s="16" t="s">
         <v>104</v>
       </c>
@@ -2696,8 +3384,11 @@
       <c r="D61" s="18" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5">
+      <c r="E61" s="34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.5">
       <c r="A62" s="16" t="s">
         <v>104</v>
       </c>
@@ -2710,8 +3401,11 @@
       <c r="D62" s="18" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.5">
+      <c r="E62" s="34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5">
       <c r="A63" s="16" t="s">
         <v>104</v>
       </c>
@@ -2724,8 +3418,11 @@
       <c r="D63" s="18" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.5">
+      <c r="E63" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.5">
       <c r="A64" s="16" t="s">
         <v>104</v>
       </c>
@@ -2738,8 +3435,11 @@
       <c r="D64" s="18" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="16.5">
+      <c r="E64" s="34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.5">
       <c r="A65" s="16" t="s">
         <v>129</v>
       </c>
@@ -2752,8 +3452,11 @@
       <c r="D65" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="16.5">
+      <c r="E65" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.5">
       <c r="A66" s="16" t="s">
         <v>129</v>
       </c>
@@ -2766,8 +3469,11 @@
       <c r="D66" s="18" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="16.5">
+      <c r="E66" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.5">
       <c r="A67" s="16" t="s">
         <v>129</v>
       </c>
@@ -2780,8 +3486,11 @@
       <c r="D67" s="18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="16.5">
+      <c r="E67" s="34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.5">
       <c r="A68" s="16" t="s">
         <v>129</v>
       </c>
@@ -2794,8 +3503,11 @@
       <c r="D68" s="18" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="16.5">
+      <c r="E68" s="34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.5">
       <c r="A69" s="16" t="s">
         <v>129</v>
       </c>
@@ -2808,8 +3520,11 @@
       <c r="D69" s="18" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="16.5">
+      <c r="E69" s="34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.5">
       <c r="A70" s="16" t="s">
         <v>129</v>
       </c>
@@ -2822,8 +3537,11 @@
       <c r="D70" s="18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="16.5">
+      <c r="E70" s="34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.5">
       <c r="A71" s="16" t="s">
         <v>129</v>
       </c>
@@ -2836,8 +3554,11 @@
       <c r="D71" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="16.5">
+      <c r="E71" s="34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.5">
       <c r="A72" s="16" t="s">
         <v>129</v>
       </c>
@@ -2850,8 +3571,11 @@
       <c r="D72" s="18" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="16.5">
+      <c r="E72" s="34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16.5">
       <c r="A73" s="16" t="s">
         <v>129</v>
       </c>
@@ -2864,8 +3588,11 @@
       <c r="D73" s="18" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="16.5">
+      <c r="E73" s="34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.5">
       <c r="A74" s="16" t="s">
         <v>129</v>
       </c>
@@ -2878,8 +3605,11 @@
       <c r="D74" s="18" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="16.5">
+      <c r="E74" s="34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16.5">
       <c r="A75" s="16" t="s">
         <v>129</v>
       </c>
@@ -2892,8 +3622,11 @@
       <c r="D75" s="18" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="16.5">
+      <c r="E75" s="34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.5">
       <c r="A76" s="16" t="s">
         <v>129</v>
       </c>
@@ -2906,8 +3639,11 @@
       <c r="D76" s="18" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="16.5">
+      <c r="E76" s="34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16.5">
       <c r="A77" s="16" t="s">
         <v>152</v>
       </c>
@@ -2920,8 +3656,11 @@
       <c r="D77" s="17" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="16.5">
+      <c r="E77" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.5">
       <c r="A78" s="16" t="s">
         <v>152</v>
       </c>
@@ -2934,8 +3673,11 @@
       <c r="D78" s="18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="16.5">
+      <c r="E78" s="34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16.5">
       <c r="A79" s="16" t="s">
         <v>152</v>
       </c>
@@ -2948,8 +3690,11 @@
       <c r="D79" s="18" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="16.5">
+      <c r="E79" s="34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16.5">
       <c r="A80" s="16" t="s">
         <v>152</v>
       </c>
@@ -2962,8 +3707,11 @@
       <c r="D80" s="18" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="16.5">
+      <c r="E80" s="34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16.5">
       <c r="A81" s="16" t="s">
         <v>152</v>
       </c>
@@ -2976,8 +3724,11 @@
       <c r="D81" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.5">
+      <c r="E81" s="34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.5">
       <c r="A82" s="16" t="s">
         <v>152</v>
       </c>
@@ -2990,8 +3741,11 @@
       <c r="D82" s="18" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="16.5">
+      <c r="E82" s="34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16.5">
       <c r="A83" s="16" t="s">
         <v>152</v>
       </c>
@@ -3004,8 +3758,11 @@
       <c r="D83" s="18" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="16.5">
+      <c r="E83" s="34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16.5">
       <c r="A84" s="16" t="s">
         <v>152</v>
       </c>
@@ -3018,8 +3775,11 @@
       <c r="D84" s="18" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="16.5">
+      <c r="E84" s="34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16.5">
       <c r="A85" s="16" t="s">
         <v>152</v>
       </c>
@@ -3032,8 +3792,11 @@
       <c r="D85" s="18" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="16.5">
+      <c r="E85" s="34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16.5">
       <c r="A86" s="16" t="s">
         <v>152</v>
       </c>
@@ -3046,8 +3809,11 @@
       <c r="D86" s="18" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="16.5">
+      <c r="E86" s="34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16.5">
       <c r="A87" s="16" t="s">
         <v>170</v>
       </c>
@@ -3060,8 +3826,11 @@
       <c r="D87" s="29" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="16.5">
+      <c r="E87" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16.5">
       <c r="A88" s="16" t="s">
         <v>170</v>
       </c>
@@ -3074,8 +3843,11 @@
       <c r="D88" s="18" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="16.5">
+      <c r="E88" s="34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16.5">
       <c r="A89" s="16" t="s">
         <v>170</v>
       </c>
@@ -3088,8 +3860,11 @@
       <c r="D89" s="18" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="16.5">
+      <c r="E89" s="34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16.5">
       <c r="A90" s="16" t="s">
         <v>170</v>
       </c>
@@ -3102,8 +3877,11 @@
       <c r="D90" s="18" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="16.5">
+      <c r="E90" s="34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16.5">
       <c r="A91" s="16" t="s">
         <v>170</v>
       </c>
@@ -3116,8 +3894,11 @@
       <c r="D91" s="18" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="16.5">
+      <c r="E91" s="34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16.5">
       <c r="A92" s="16" t="s">
         <v>170</v>
       </c>
@@ -3130,8 +3911,11 @@
       <c r="D92" s="18" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="16.5">
+      <c r="E92" s="34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16.5">
       <c r="A93" s="16" t="s">
         <v>170</v>
       </c>
@@ -3144,8 +3928,11 @@
       <c r="D93" s="18" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="16.5">
+      <c r="E93" s="34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16.5">
       <c r="A94" s="16" t="s">
         <v>170</v>
       </c>
@@ -3158,8 +3945,11 @@
       <c r="D94" s="18" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="16.5">
+      <c r="E94" s="34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16.5">
       <c r="A95" s="16" t="s">
         <v>170</v>
       </c>
@@ -3172,8 +3962,11 @@
       <c r="D95" s="18" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="16.5">
+      <c r="E95" s="34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16.5">
       <c r="A96" s="16" t="s">
         <v>187</v>
       </c>
@@ -3186,8 +3979,11 @@
       <c r="D96" s="17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="16.5">
+      <c r="E96" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16.5">
       <c r="A97" s="16" t="s">
         <v>187</v>
       </c>
@@ -3200,8 +3996,11 @@
       <c r="D97" s="18" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="16.5">
+      <c r="E97" s="34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16.5">
       <c r="A98" s="16" t="s">
         <v>187</v>
       </c>
@@ -3214,8 +4013,11 @@
       <c r="D98" s="18" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="16.5">
+      <c r="E98" s="34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16.5">
       <c r="A99" s="16" t="s">
         <v>187</v>
       </c>
@@ -3228,8 +4030,11 @@
       <c r="D99" s="18" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="16.5">
+      <c r="E99" s="34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16.5">
       <c r="A100" s="16" t="s">
         <v>187</v>
       </c>
@@ -3242,8 +4047,11 @@
       <c r="D100" s="18" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="16.5">
+      <c r="E100" s="34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.5">
       <c r="A101" s="16" t="s">
         <v>187</v>
       </c>
@@ -3256,8 +4064,11 @@
       <c r="D101" s="18" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="16.5">
+      <c r="E101" s="34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16.5">
       <c r="A102" s="16" t="s">
         <v>197</v>
       </c>
@@ -3270,8 +4081,11 @@
       <c r="D102" s="17" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="16.5">
+      <c r="E102" s="31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16.5">
       <c r="A103" s="16" t="s">
         <v>197</v>
       </c>
@@ -3284,8 +4098,11 @@
       <c r="D103" s="18" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="16.5">
+      <c r="E103" s="34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16.5">
       <c r="A104" s="16" t="s">
         <v>197</v>
       </c>
@@ -3298,13 +4115,16 @@
       <c r="D104" s="18" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="16.5">
+      <c r="E104" s="34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16.5">
       <c r="A105" s="16" t="s">
         <v>202</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>202</v>
@@ -3312,8 +4132,11 @@
       <c r="D105" s="17" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="16.5">
+      <c r="E105" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16.5">
       <c r="A106" s="16" t="s">
         <v>202</v>
       </c>
@@ -3326,8 +4149,11 @@
       <c r="D106" s="18" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="16.5">
+      <c r="E106" s="34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16.5">
       <c r="A107" s="16" t="s">
         <v>202</v>
       </c>
@@ -3339,115 +4165,174 @@
       </c>
       <c r="D107" s="18" t="s">
         <v>206</v>
+      </c>
+      <c r="E107" s="34" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A27:C30 A32:C51 A53:C76 A78:C86 A88:C95 A97:C101 A103:C104 A106:C107 A1:C3 A4 A5:C25">
-    <cfRule type="expression" dxfId="20" priority="29">
+    <cfRule type="expression" dxfId="31" priority="60">
       <formula>$D1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D30 D32:D47 D49:D51 D53:D64 D66:D76 D78:D86 D88:D95 D97:D101 D103:D104 D106:D107 D1:D25">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="59">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="18" priority="27">
+    <cfRule type="expression" dxfId="29" priority="58">
       <formula>$D26&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="17" priority="25">
+    <cfRule type="expression" dxfId="28" priority="56">
       <formula>$D26&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:C31">
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="27" priority="55">
       <formula>$D31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="26" priority="53">
       <formula>$D31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="25" priority="52">
       <formula>$D48&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:C52">
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="24" priority="51">
       <formula>$D52&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="23" priority="49">
       <formula>$D52&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="22" priority="48">
       <formula>$D65&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:C77">
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="21" priority="47">
       <formula>$D77&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="20" priority="45">
       <formula>$D77&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:C87">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="19" priority="44">
       <formula>$D87&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="18" priority="42">
       <formula>$D87&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:C96">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="17" priority="41">
       <formula>$D96&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="16" priority="39">
       <formula>$D96&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:C102">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="15" priority="38">
       <formula>$D102&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="14" priority="36">
       <formula>$D102&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105:C105">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="13" priority="35">
       <formula>$D105&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="12" priority="33">
       <formula>$D105&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="11" priority="32">
       <formula>$D4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E30 E32:E47 E49:E51 E53:E64 E66:E76 E78:E86 E88:E95 E97:E101 E103:E104 E106:E107 E1:E25">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="31">
+      <formula>LEN(TRIM(E1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="20">
+      <formula>LEN(TRIM(E26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="19">
+      <formula>LEN(TRIM(E31))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="18">
+      <formula>LEN(TRIM(E48))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="17">
+      <formula>LEN(TRIM(E52))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="16">
+      <formula>LEN(TRIM(E65))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="15">
+      <formula>LEN(TRIM(E77))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="14">
+      <formula>LEN(TRIM(E87))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="13">
+      <formula>LEN(TRIM(E96))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="12">
+      <formula>LEN(TRIM(E102))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="11">
+      <formula>LEN(TRIM(E105))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/B 參數.xlsx
+++ b/test/B 參數.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214A4041-7665-4682-BE2A-D1F2B685E608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F715F7C6-2D6D-451B-9413-74F483E78362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="評鑑指標" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="323">
   <si>
     <t>編號</t>
   </si>
@@ -1028,6 +1028,10 @@
   </si>
   <si>
     <t>資訊學院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小結</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1295,7 +1299,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
     <dxf>
       <border>
         <left style="thin">
@@ -1868,6 +1872,15 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="dashed">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
         <vertical/>
         <horizontal/>
       </border>
@@ -2167,10 +2180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2181,7 +2194,7 @@
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33">
+    <row r="1" spans="1:6" ht="33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2197,8 +2210,11 @@
       <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5">
+      <c r="F1" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2214,8 +2230,11 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2231,8 +2250,11 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2248,8 +2270,11 @@
       <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5">
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -2265,8 +2290,11 @@
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -2282,8 +2310,11 @@
       <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5">
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -2299,8 +2330,11 @@
       <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5">
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -2315,21 +2349,30 @@
       </c>
       <c r="E8" s="13" t="s">
         <v>20</v>
+      </c>
+      <c r="F8" s="13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:B8">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E8">
+    <cfRule type="expression" dxfId="33" priority="3">
+      <formula>#REF!=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F8">
     <cfRule type="expression" dxfId="32" priority="1">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2338,7 +2381,7 @@
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/test/B 參數.xlsx
+++ b/test/B 參數.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F715F7C6-2D6D-451B-9413-74F483E78362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DEA504-0428-4B94-B1D8-C9E1ED8F9CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2183,7 +2183,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/test/B 參數.xlsx
+++ b/test/B 參數.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DEA504-0428-4B94-B1D8-C9E1ED8F9CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C796871-9E88-4A02-BF97-A44D6A1BE378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="評鑑指標" sheetId="1" r:id="rId1"/>
@@ -2182,8 +2182,8 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2357,17 +2357,17 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:B8">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="34" priority="3">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E8">
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F8">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>#REF!=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2381,7 +2381,7 @@
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
